--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -410,37 +411,37 @@
         <v>customerId</v>
       </c>
       <c r="C1" t="str">
-        <v>grandTotal (NGR)</v>
+        <v>Grand Total (NGR)</v>
       </c>
       <c r="D1" t="str">
-        <v>shippingFee (NGR)</v>
+        <v>ShippingFee (NGR)</v>
       </c>
       <c r="E1" t="str">
-        <v>start Date</v>
+        <v>Start Date</v>
       </c>
       <c r="F1" t="str">
-        <v>payment Method</v>
+        <v>Payment Method</v>
       </c>
       <c r="G1" t="str">
-        <v>orders</v>
+        <v>Orders</v>
       </c>
       <c r="H1" t="str">
-        <v>promotion</v>
+        <v>Promotion</v>
       </c>
       <c r="I1" t="str">
-        <v>status</v>
+        <v>Status</v>
       </c>
       <c r="J1" t="str">
         <v>Bank Account</v>
       </c>
       <c r="K1" t="str">
-        <v>discount %</v>
+        <v>Discount %</v>
       </c>
       <c r="L1" t="str">
-        <v>ware House</v>
+        <v>Ware House</v>
       </c>
       <c r="M1" t="str">
-        <v>sales Person</v>
+        <v>Sales Person</v>
       </c>
       <c r="N1" t="str">
         <v>Registered Balance</v>
@@ -449,7 +450,7 @@
         <v>Reference No</v>
       </c>
       <c r="P1" t="str">
-        <v>Status</v>
+        <v>Bill Status</v>
       </c>
     </row>
     <row r="2">
@@ -465,8 +466,8 @@
       <c r="D2">
         <v>1000</v>
       </c>
-      <c r="E2" t="str">
-        <v>2023-07-17</v>
+      <c r="E2" s="1">
+        <v>45124.04207175926</v>
       </c>
       <c r="F2" t="str">
         <v>Bank Payment</v>
@@ -478,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <v>Approved</v>
+        <v>Quoataion</v>
       </c>
       <c r="J2" t="str">
         <v>Zenith bank</v>
@@ -499,7 +500,7 @@
         <v>67285</v>
       </c>
       <c r="P2" t="str">
-        <v>Quoataion</v>
+        <v>Approved</v>
       </c>
     </row>
     <row r="3">
@@ -515,8 +516,8 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3" t="str">
-        <v>2023-07-17</v>
+      <c r="E3" s="1">
+        <v>45124.04207175926</v>
       </c>
       <c r="F3" t="str">
         <v>Bank Payment</v>
@@ -528,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <v>Approved</v>
+        <v>Invoiced</v>
       </c>
       <c r="J3" t="str">
         <v>Access Bank</v>
@@ -549,7 +550,7 @@
         <v>819550</v>
       </c>
       <c r="P3" t="str">
-        <v>Invoiced</v>
+        <v>Approved</v>
       </c>
     </row>
     <row r="4">
@@ -565,8 +566,8 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" t="str">
-        <v>2023-07-26</v>
+      <c r="E4" s="1">
+        <v>45133.04207175926</v>
       </c>
       <c r="F4" t="str">
         <v>Bank Payment</v>
@@ -578,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <v>Approved</v>
+        <v>Quoataion</v>
       </c>
       <c r="J4" t="str">
         <v>Access Bank</v>
@@ -599,7 +600,7 @@
         <v>500553</v>
       </c>
       <c r="P4" t="str">
-        <v>Quoataion</v>
+        <v>Approved</v>
       </c>
     </row>
     <row r="5">
@@ -615,8 +616,8 @@
       <c r="D5">
         <v>1200</v>
       </c>
-      <c r="E5" t="str">
-        <v>2023-07-17</v>
+      <c r="E5" s="1">
+        <v>45124.04207175926</v>
       </c>
       <c r="F5" t="str">
         <v>Bank Payment</v>
@@ -628,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <v>Approved</v>
+        <v>Quoataion</v>
       </c>
       <c r="J5" t="str">
         <v>Access Bank</v>
@@ -649,7 +650,7 @@
         <v>350257</v>
       </c>
       <c r="P5" t="str">
-        <v>Quoataion</v>
+        <v>Approved</v>
       </c>
     </row>
     <row r="6">
@@ -665,8 +666,8 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="str">
-        <v>2023-07-17</v>
+      <c r="E6" s="1">
+        <v>45124.04207175926</v>
       </c>
       <c r="F6" t="str">
         <v>Bank Payment</v>
@@ -678,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="str">
-        <v>Approved</v>
+        <v>Invoiced</v>
       </c>
       <c r="J6" t="str">
         <v>Zenith bank</v>
@@ -699,7 +700,7 @@
         <v>221651</v>
       </c>
       <c r="P6" t="str">
-        <v>Invoiced</v>
+        <v>Approved</v>
       </c>
     </row>
     <row r="7">
@@ -715,11 +716,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="str">
-        <v>2023-07-17</v>
+      <c r="E7" s="1">
+        <v>45124.04207175926</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>Bank Payment</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -728,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="str">
-        <v>Approved</v>
+        <v>Invoiced</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>GT Bank</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -743,19 +744,519 @@
         <v>Fivo</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14696</v>
       </c>
       <c r="O7" t="str">
         <v>145520</v>
       </c>
       <c r="P7" t="str">
-        <v>Quoataion</v>
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>64b686c9d74bd63db7f9bd30</v>
+      </c>
+      <c r="B8" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C8">
+        <v>471747</v>
+      </c>
+      <c r="D8">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45125.04207175926</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Access Bank</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8" t="str">
+        <v>64911977d79a672920c84f16</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N8">
+        <v>471747</v>
+      </c>
+      <c r="O8" t="str">
+        <v>780116</v>
+      </c>
+      <c r="P8" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>64b8f858dafcdc4ad67c0dde</v>
+      </c>
+      <c r="B9" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C9">
+        <v>930494</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45127.04207175926</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Access Bank</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <v>64911977d79a672920c84f16</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N9">
+        <v>930494</v>
+      </c>
+      <c r="O9" t="str">
+        <v>25889</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>64b8fd3aef67b840eb3fbda7</v>
+      </c>
+      <c r="B10" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C10">
+        <v>1394241</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45127.04207175926</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Zenith bank</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="str">
+        <v>64996a6f08c70837359160b9</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N10">
+        <v>1394241</v>
+      </c>
+      <c r="O10" t="str">
+        <v>679627</v>
+      </c>
+      <c r="P10" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>64b94c75305bfb46fad7425f</v>
+      </c>
+      <c r="B11" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C11">
+        <v>555360</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45127.04207175926</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Access Bank</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="str">
+        <v>64911977d79a672920c84f16</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N11">
+        <v>555360</v>
+      </c>
+      <c r="O11" t="str">
+        <v>537521</v>
+      </c>
+      <c r="P11" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>64b94d90305bfb46fad742b5</v>
+      </c>
+      <c r="B12" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C12">
+        <v>33066</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45127.04207175926</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Access Bank</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="str">
+        <v>64911977d79a672920c84f16</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Jesus</v>
+      </c>
+      <c r="N12">
+        <v>33066</v>
+      </c>
+      <c r="O12" t="str">
+        <v>72968</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>64b9ceb869aee6bc4428cadc</v>
+      </c>
+      <c r="B13" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C13">
+        <v>28890</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45128.04207175926</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Zenith bank</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="str">
+        <v>64911977d79a672920c84f16</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N13">
+        <v>28890</v>
+      </c>
+      <c r="O13" t="str">
+        <v>972879</v>
+      </c>
+      <c r="P13" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>64ba09ad0ace6be5ba3d9a7a</v>
+      </c>
+      <c r="B14" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C14">
+        <v>465547</v>
+      </c>
+      <c r="D14">
+        <v>800</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45128.04207175926</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Zenith bank</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="str">
+        <v>64996a6f08c70837359160b9</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N14">
+        <v>465547</v>
+      </c>
+      <c r="O14" t="str">
+        <v>289278</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>64ba7f6c1a7c30edf4fe033b</v>
+      </c>
+      <c r="B15" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C15">
+        <v>42066</v>
+      </c>
+      <c r="D15">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45128.04207175926</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Cash payment</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J15" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" t="str">
+        <v>64911977d79a672920c84f16</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Jesus</v>
+      </c>
+      <c r="N15">
+        <v>42066</v>
+      </c>
+      <c r="O15" t="str">
+        <v>609343</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>64ba83301a7c30edf4fe0457</v>
+      </c>
+      <c r="B16" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C16">
+        <v>140612</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45128.04207175926</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Cash payment</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J16" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16" t="str">
+        <v>64911977d79a672920c84f16</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Jesus</v>
+      </c>
+      <c r="N16">
+        <v>140612</v>
+      </c>
+      <c r="O16" t="str">
+        <v>861612</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>64bb09915b9bdc7525d5a5b0</v>
+      </c>
+      <c r="B17" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C17">
+        <v>2324735</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45128.04207175926</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Zenith bank</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="str">
+        <v>64996a6f08c70837359160b9</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N17">
+        <v>343344</v>
+      </c>
+      <c r="O17" t="str">
+        <v>253705</v>
+      </c>
+      <c r="P17" t="str">
+        <v>Approved</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1232,7 +1232,7 @@
         <v>Invoiced</v>
       </c>
       <c r="J17" t="str">
-        <v>Zenith bank</v>
+        <v>CASH</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -1244,19 +1244,419 @@
         <v>Bernard</v>
       </c>
       <c r="N17">
-        <v>343344</v>
+        <v>2324735</v>
       </c>
       <c r="O17" t="str">
         <v>253705</v>
       </c>
       <c r="P17" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>64bba574a7499d7733f537e3</v>
+      </c>
+      <c r="B18" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C18">
+        <v>4200673</v>
+      </c>
+      <c r="D18">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45129.04207175926</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Cash payment</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J18" t="str">
+        <v>CASH</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18" t="str">
+        <v>64a282ffb1d2b9bb36188d0c</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N18">
+        <v>4200673</v>
+      </c>
+      <c r="O18" t="str">
+        <v>976105</v>
+      </c>
+      <c r="P18" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>64bc3de5863ca7a448d1955e</v>
+      </c>
+      <c r="B19" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C19">
+        <v>1884668</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45129.04207175926</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Cash payment</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J19" t="str">
+        <v>CASH</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19" t="str">
+        <v>64a282ffb1d2b9bb36188d0c</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N19">
+        <v>1884668</v>
+      </c>
+      <c r="O19" t="str">
+        <v>566965</v>
+      </c>
+      <c r="P19" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>64bc62d7250f0d99f9814523</v>
+      </c>
+      <c r="B20" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C20">
+        <v>1422049</v>
+      </c>
+      <c r="D20">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45131.04207175926</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J20" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20" t="str">
+        <v>64996a6f08c70837359160b9</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N20">
+        <v>1422049</v>
+      </c>
+      <c r="O20" t="str">
+        <v>519375</v>
+      </c>
+      <c r="P20" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>64bdb5afa815a7d13319bc28</v>
+      </c>
+      <c r="B21" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C21">
+        <v>20260</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45131.04207175926</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J21" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21" t="str">
+        <v>64a282ffb1d2b9bb36188d0c</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N21">
+        <v>20260</v>
+      </c>
+      <c r="O21" t="str">
+        <v>98492</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>64bdd2d5344b2b124336df12</v>
+      </c>
+      <c r="B22" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C22">
+        <v>930494</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45131.04207175926</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Cash payment</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J22" t="str">
+        <v>CASH</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" t="str">
+        <v>64a282ffb1d2b9bb36188d0c</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N22">
+        <v>930494</v>
+      </c>
+      <c r="O22" t="str">
+        <v>325346</v>
+      </c>
+      <c r="P22" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>64be3289c3b8ea80b088774f</v>
+      </c>
+      <c r="B23" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C23">
+        <v>1395241</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45131.04207175926</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J23" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23" t="str">
+        <v>64a282ffb1d2b9bb36188d0c</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N23">
+        <v>1395241</v>
+      </c>
+      <c r="O23" t="str">
+        <v>161058</v>
+      </c>
+      <c r="P23" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>64c03a836452e19bacfb6b82</v>
+      </c>
+      <c r="B24" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C24">
+        <v>28680</v>
+      </c>
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45132.04207175926</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Cash payment</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J24" t="str">
+        <v>CASH</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24" t="str">
+        <v>64a282ffb1d2b9bb36188d0c</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N24">
+        <v>28680</v>
+      </c>
+      <c r="O24" t="str">
+        <v>989329</v>
+      </c>
+      <c r="P24" t="str">
+        <v>Approved</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>64c21fb6bd52a08c991a112a</v>
+      </c>
+      <c r="B25" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C25">
+        <v>4209403</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45138.04207175926</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Cash payment</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J25" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25" t="str">
+        <v>64a282ffb1d2b9bb36188d0c</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="N25">
+        <v>4209403</v>
+      </c>
+      <c r="O25" t="str">
+        <v>107491</v>
+      </c>
+      <c r="P25" t="str">
         <v>Approved</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\BigBernErp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43B25CC-ECEE-426D-B400-C12A857A72EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,7 +65,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -63,14 +73,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -395,89 +397,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P25"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="5:5" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E2" s="1"/>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>customerId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Grand Total (₦)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>ShippingFee (₦)</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Start Date</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Payment Method</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Promotion</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Bank Account</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Discount %</v>
+      </c>
+      <c r="L1" t="str">
+        <v>raised By</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Registered Balance</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Reference No</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Bill Status</v>
+      </c>
+      <c r="P1" t="str">
+        <v>AccountantName</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>AccountantName</v>
+      </c>
     </row>
-    <row r="3" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>64f4ede2c212e4b8ac1711eb</v>
+      </c>
+      <c r="B2" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C2" t="str">
+        <v>₦17120</v>
+      </c>
+      <c r="D2" t="str">
+        <v>₦900</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45172.00040509259</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J2" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="str">
+        <v>₦17120</v>
+      </c>
+      <c r="N2" t="str">
+        <v>184148</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Approved</v>
+      </c>
     </row>
-    <row r="4" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>64f5b466e29a9aa4bd572d5a</v>
+      </c>
+      <c r="B3" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C3" t="str">
+        <v>₦42800</v>
+      </c>
+      <c r="D3" t="str">
+        <v>₦0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45173.04207175926</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J3" t="str">
+        <v>GT Bank</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="str">
+        <v>₦42800</v>
+      </c>
+      <c r="N3" t="str">
+        <v>378253</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Approved</v>
+      </c>
     </row>
-    <row r="5" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>64f62dbfdf73e8806bda2372</v>
+      </c>
+      <c r="B4" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C4" t="str">
+        <v>₦126815</v>
+      </c>
+      <c r="D4" t="str">
+        <v>₦20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45173.04207175926</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J4" t="str">
+        <v>0015440544</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="str">
+        <v>₦126815</v>
+      </c>
+      <c r="N4" t="str">
+        <v>887695</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Locked</v>
+      </c>
+      <c r="P4" t="str">
+        <v>bernard ogoh</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>bernard ogoh</v>
+      </c>
     </row>
-    <row r="6" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>64f62e92df73e8806bda239b</v>
+      </c>
+      <c r="B5" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C5" t="str">
+        <v>₦250400</v>
+      </c>
+      <c r="D5" t="str">
+        <v>₦20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45173.04207175926</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0015440544</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="M5" t="str">
+        <v>₦250400</v>
+      </c>
+      <c r="N5" t="str">
+        <v>849861</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Locked</v>
+      </c>
+      <c r="P5" t="str">
+        <v>bernard ogoh</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>bernard ogoh</v>
+      </c>
     </row>
-    <row r="7" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>64f62fe2df73e8806bda23d2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C6" t="str">
+        <v>₦279924</v>
+      </c>
+      <c r="D6" t="str">
+        <v>₦12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45173.04207175926</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J6" t="str">
+        <v>0015440544</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="M6" t="str">
+        <v>₦279924</v>
+      </c>
+      <c r="N6" t="str">
+        <v>210260</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Locked</v>
+      </c>
+      <c r="P6" t="str">
+        <v>bernard ogoh</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>bernard ogoh</v>
+      </c>
     </row>
-    <row r="8" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>64f64145adfb9e14957835b5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>640900b19a139999b1824b31</v>
+      </c>
+      <c r="C7" t="str">
+        <v>₦82390</v>
+      </c>
+      <c r="D7" t="str">
+        <v>₦0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45173.00040509259</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Bank Payment</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Invoiced</v>
+      </c>
+      <c r="J7" t="str">
+        <v>CASH</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="M7" t="str">
+        <v>₦82390</v>
+      </c>
+      <c r="N7" t="str">
+        <v>741686</v>
+      </c>
+      <c r="O7" t="str">
+        <v>Approved</v>
+      </c>
     </row>
-    <row r="9" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>64fe69d5ba654a45419ee75d</v>
+      </c>
+      <c r="B8" t="str">
+        <v>6405f77c1ec640bb7919b533</v>
+      </c>
+      <c r="C8" t="str">
+        <v>₦8025</v>
+      </c>
+      <c r="D8" t="str">
+        <v>₦4000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45179.95873842593</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Quoataion</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="M8" t="str">
+        <v>₦0</v>
+      </c>
+      <c r="N8" t="str">
+        <v>132374</v>
+      </c>
+      <c r="O8" t="str">
+        <v>Approved</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q25"/>
+  </ignoredErrors>
 </worksheet>
 </file>